--- a/UML/CRC_Cards.xlsx
+++ b/UML/CRC_Cards.xlsx
@@ -429,6 +429,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,18 +441,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -458,18 +458,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,516 +526,873 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="59" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6"/>
+      <c r="B68" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6"/>
+      <c r="B69" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
-      <c r="B105" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
-      <c r="B106" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-    </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6"/>
-      <c r="B121" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-    </row>
-    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-    </row>
-    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/UML/CRC_Cards.xlsx
+++ b/UML/CRC_Cards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t xml:space="preserve">CRC_CARDS</t>
   </si>
@@ -117,13 +117,83 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">: LOGJumpingTableau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Superclasses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jumpingTableau</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Subclasses </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">: TableauFactory</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Applica esaustivamente le regole al fine di garantire la terminazione del Tableau di tipo Jumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwlAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica la soddisfacibilità del concetto passato in input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OntologyRenderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrive sul file di Log informazioni di debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoggerManager</t>
+  </si>
+  <si>
     <t xml:space="preserve">Istanzia ChronologicalTableau</t>
   </si>
   <si>
+    <t xml:space="preserve">Fornisce il modello che soddisfa l’espressione</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -147,27 +217,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Applica esaustivamente le regole al fine di garantire la terminazione del Tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OwlAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifica la soddisfacibilità del concetto passato in input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OntologyRenderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrive sul file di Log informazioni di debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoggerManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornisce il modello che soddisfa l’espressione</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -187,10 +236,151 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">: JumpingTableau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Superclasses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ChronologicalTableau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Subclasses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LOGChronologicalTableau
+                   JumpingTableau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Subclasses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LOGJumpingTableau</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Applica esaustivamente le regole al fine di garantire la terminazione del Tableau di tipo Chronological</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">: LoggerManager</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: LOGChronologicalTableau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Superclasses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ChronologicalTableau</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Configura il file di Log</t>
   </si>
   <si>
@@ -288,6 +478,44 @@
   </si>
   <si>
     <t xml:space="preserve">Permette di visualizzare il file di Log del concetto precedentemente verifificato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permette di lanciare una batteria di test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HermiT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Battery</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Carica ad uno ad uno tutti i concetti presenti nella cartella “Ontologie” e ne verifica la soddisfacibilità </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permette di visualizzare i file di Log dei concetti precedentemente verifificati</t>
   </si>
 </sst>
 </file>
@@ -297,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -336,6 +564,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -374,6 +608,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -400,7 +641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,6 +674,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,14 +686,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -458,20 +711,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -526,10 +777,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
@@ -570,67 +817,127 @@
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5"/>
-    </row>
+      <c r="E30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
@@ -639,60 +946,100 @@
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
@@ -701,27 +1048,56 @@
       <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="E50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F52" s="5"/>
+    </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2"/>
     </row>
@@ -749,25 +1125,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2"/>
     </row>
@@ -795,37 +1171,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>21</v>
+      </c>
+    </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B73" s="2"/>
     </row>
@@ -853,514 +1227,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B80" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="48">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -1369,18 +1340,30 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="A45:B45"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
@@ -1393,6 +1376,10 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/UML/CRC_Cards.xlsx
+++ b/UML/CRC_Cards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t xml:space="preserve">CRC_CARDS</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fornisce il modello che soddisfa l’espressione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornisce il numero di iterazioni eseguite</t>
   </si>
   <si>
     <r>
@@ -359,28 +362,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Superclasses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ChronologicalTableau</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Configura il file di Log</t>
   </si>
   <si>
@@ -471,7 +452,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Carica il concetto previa selezione e ne verifica la soddisfacibilità</t>
+    <t xml:space="preserve">Carica il concetto da verificare previa selezione</t>
   </si>
   <si>
     <t xml:space="preserve">Java Swing</t>
@@ -483,6 +464,9 @@
     <t xml:space="preserve">Permette di lanciare una batteria di test</t>
   </si>
   <si>
+    <t xml:space="preserve">Visualizza i risultati della verifica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Battery</t>
   </si>
   <si>
@@ -515,7 +499,7 @@
     <t xml:space="preserve">Carica ad uno ad uno tutti i concetti presenti nella cartella “Ontologie” e ne verifica la soddisfacibilità </t>
   </si>
   <si>
-    <t xml:space="preserve">Permette di visualizzare i file di Log dei concetti precedentemente verifificati</t>
+    <t xml:space="preserve">Imposta i file di log per il tracciamento dell’esecuzione</t>
   </si>
 </sst>
 </file>
@@ -525,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -563,12 +547,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -641,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,11 +664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,13 +685,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
@@ -901,15 +875,19 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -919,17 +897,17 @@
       </c>
       <c r="B34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="8"/>
       <c r="E35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -955,7 +933,7 @@
     </row>
     <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
@@ -1005,13 +983,21 @@
       </c>
       <c r="F41" s="5"/>
     </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -1021,7 +1007,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -1063,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>17</v>
@@ -1094,6 +1080,11 @@
         <v>23</v>
       </c>
       <c r="F52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -1252,84 +1243,83 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
-        <v>21</v>
+      <c r="A81" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
-        <v>47</v>
+      <c r="B82" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="A83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" s="12" t="s">
+    <row r="88" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12" t="s">
-        <v>21</v>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-    </row>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="A3:B3"/>
@@ -1376,10 +1366,10 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
